--- a/用例数据/深A/权证行权/现金选择权/T日/测试结果.xlsx
+++ b/用例数据/深A/权证行权/现金选择权/T日/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="exchangerights" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="310">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -945,6 +945,12 @@
   </si>
   <si>
     <t>000007159971</t>
+  </si>
+  <si>
+    <t>6240000.0000</t>
+  </si>
+  <si>
+    <t>130.0000</t>
   </si>
 </sst>
 </file>
@@ -1970,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2265,13 +2271,13 @@
         <v>80</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>76</v>
@@ -2316,7 +2322,7 @@
         <v>86</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>80</v>
@@ -2360,6 +2366,9 @@
       <c r="AO2" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>80</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>79</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>76</v>
@@ -2512,7 +2521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
